--- a/ApolloQA/Data/RatingManual/GA/VA00052.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00052.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00052" sheetId="1" r:id="Rc4e3985466104864"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00052" sheetId="1" r:id="Ra77ccb020d854edb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,131 +23,98 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.BaseRateFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.IsAccidentPreventionFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.CoveredAutosFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.IsVehicleLevelSafetyFeaturesFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.LimitFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.ClassCodeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.FleetSizeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.OrganizationTypeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.BusinessExperienceFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.InsuranceScoreTierFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.TerritoryFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00052.BillingType_IsEFT_PaymentPlanFactors</x:v>
+        <x:v>Maximum</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Cost Of Hire</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Maximum</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00020.MinimumCostofHireFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Rating Cost of Hire</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00020.BaseRateFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00020.PredominantTerritoryFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00020.InsuranceScoreTierFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00020.IsExcessRatingFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00020.BillingType_IsEFT_PaymentPlanFactors</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -162,6 +129,50 @@
       </x:c>
       <x:c t="str">
         <x:v>DR</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Manual Basic Limits Premium</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Excess Limits Rating Factor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.6</x:v>
       </x:c>
     </x:row>
     <x:row>
